--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44076.69513888889</v>
+        <v>44076.69512731482</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>14.84</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>181.52</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>14.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -446,19 +446,19 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.91</v>
+        <v>2.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.22</v>
+        <v>3.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.57</v>
+        <v>11.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.15</v>
+        <v>2.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.69</v>
+        <v>2.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.05</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.97</v>
+        <v>3.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.01</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.23</v>
+        <v>2.52</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.86</v>
+        <v>3.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.8</v>
+        <v>3.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.73</v>
+        <v>13.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.47</v>
+        <v>3.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44076.66041666667</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>38.45</v>
+        <v>3.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44076.66736111111</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31.35</v>
+        <v>3.13</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>25.49</v>
+        <v>2.55</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>44.29</v>
+        <v>4.43</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>164.35</v>
+        <v>16.44</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>31.55</v>
+        <v>3.15</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>40.24</v>
+        <v>4.02</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>39.71</v>
+        <v>3.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>32.46</v>
+        <v>3.25</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>55.32</v>
+        <v>5.53</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.11</v>
+        <v>2.21</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.35</v>
+        <v>2.03</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>210.14</v>
+        <v>21.01</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>39.94</v>
+        <v>3.99</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>50.22</v>
+        <v>5.02</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>40.76</v>
+        <v>4.08</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>33.37</v>
+        <v>3.34</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>57.68</v>
+        <v>5.77</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>41.02</v>
+        <v>4.1</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>27.63</v>
+        <v>2.76</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.02</v>
+        <v>2.8</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>52.4</v>
+        <v>5.24</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>38.67</v>
+        <v>3.87</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>31.68</v>
+        <v>3.17</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>55.17</v>
+        <v>5.52</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>204.42</v>
+        <v>20.44</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>38.92</v>
+        <v>3.89</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>26.23</v>
+        <v>2.62</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>26.71</v>
+        <v>2.67</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>50.11</v>
+        <v>5.01</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,12 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>1.81</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.28</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="Y3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.72</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.69</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>13.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.19</v>
+        <v>3.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,726 +967,206 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.61</v>
+        <v>3.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.68</v>
+        <v>4.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.57</v>
+        <v>17.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.63</v>
+        <v>3.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.35</v>
+        <v>4.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44076.66041666667</v>
+        <v>44076.6604050926</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.38</v>
+        <v>14.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03</v>
+        <v>11.05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.03</v>
+        <v>32.4</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.45</v>
+        <v>26.35</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.08</v>
+        <v>11.4</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.23</v>
+        <v>45.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.69</v>
+        <v>17.99</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.74</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.09</v>
+        <v>11.67</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.22</v>
+        <v>13.11</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.3</v>
+        <v>13.74</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.34</v>
+        <v>3.91</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.09</v>
+        <v>11.65</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>170.08</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>2.06</v>
+        <v>22.61</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.89</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.79</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.93</v>
+        <v>9.93</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.28</v>
+        <v>13.67</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.85</v>
+        <v>41.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44076.66736111111</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44076.67430555556</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44076.68125</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44076.68819444445</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44076.69512731482</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>170.08</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>32.63</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="AH11" s="4" t="n">
         <v>13.45</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -446,9 +446,9 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.92</v>
+        <v>29.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.3</v>
+        <v>23.05</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.09</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.29</v>
+        <v>152.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.94</v>
+        <v>29.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.5</v>
+        <v>35.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.69</v>
+        <v>36.92</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.57</v>
+        <v>135.74</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.56</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.49</v>
+        <v>44.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.09</v>
+        <v>40.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.19</v>
+        <v>13.189</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.76</v>
+        <v>9.760999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.545</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.22</v>
+        <v>29.225</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.05</v>
+        <v>23.045</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.956</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.09</v>
+        <v>38.091</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.23</v>
+        <v>16.234</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.16</v>
+        <v>7.162</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.94</v>
+        <v>9.943</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>11.93</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.35</v>
+        <v>12.351</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.67</v>
+        <v>3.673</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.68</v>
+        <v>14.684</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.27</v>
+        <v>9.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.118</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.58</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.9</v>
+        <v>152.898</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.4</v>
+        <v>29.401</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.32</v>
+        <v>19.318</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>10.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.486</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.93</v>
+        <v>19.926</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.78</v>
+        <v>7.778</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.105</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.33</v>
+        <v>12.332</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.04</v>
+        <v>35.042</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.32</v>
+        <v>5.318</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.82</v>
+        <v>11.822</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.795</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.105</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.12</v>
+        <v>26.116</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.86</v>
+        <v>20.857</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.98</v>
+        <v>8.978</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.92</v>
+        <v>36.923</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.49</v>
+        <v>14.493</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.48</v>
+        <v>6.477</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.073</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>10.64</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.06</v>
+        <v>11.057</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>3.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.193</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.18</v>
+        <v>8.179</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.786</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.445</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>135.74</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.31</v>
+        <v>26.312</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.41</v>
+        <v>17.414</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.26</v>
+        <v>9.256</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.56</v>
+        <v>18.559</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.09</v>
+        <v>8.093999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.02</v>
+        <v>11.016</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.88</v>
+        <v>33.882</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.78</v>
+        <v>4.781</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="5">
@@ -1063,110 +1063,6 @@
         <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.08</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>13.45</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,16 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -463,9 +463,9 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,102 +967,206 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.747</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.02</v>
+        <v>11.018</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.017</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.39</v>
+        <v>32.394</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.24</v>
+        <v>26.238</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.338</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.88</v>
+        <v>44.885</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.99</v>
+        <v>17.987</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.08</v>
+        <v>8.084</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.57</v>
+        <v>11.572</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.13</v>
+        <v>13.129</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.73</v>
+        <v>13.734</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.93</v>
+        <v>3.934</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.47</v>
+        <v>16.469</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.958</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.07</v>
+        <v>170.072</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>32.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.5</v>
+        <v>11.502</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.555</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.37</v>
+        <v>22.369</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.476000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.955</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.66</v>
+        <v>13.664</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.92</v>
+        <v>40.921</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6</v>
+        <v>6.002</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.6604050926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>170.08</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>13.45</v>
       </c>
     </row>

--- a/DATA_goal/Junction_Flooding_13.xlsx
+++ b/DATA_goal/Junction_Flooding_13.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,16 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -463,9 +463,9 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,206 +967,102 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.747</v>
+        <v>14.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.018</v>
+        <v>11.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.017</v>
+        <v>1.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.394</v>
+        <v>32.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.238</v>
+        <v>26.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.338</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.885</v>
+        <v>44.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.987</v>
+        <v>17.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.084</v>
+        <v>8.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.572</v>
+        <v>11.57</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.129</v>
+        <v>13.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.734</v>
+        <v>13.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.934</v>
+        <v>3.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.469</v>
+        <v>16.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.958</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.653</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.072</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>32.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.502</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.555</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.369</v>
+        <v>22.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.476000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.955</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.664</v>
+        <v>13.66</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.921</v>
+        <v>40.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.002</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.08</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
         <v>13.45</v>
       </c>
     </row>
